--- a/biology/Médecine/Jean-Luc_Bélingard/Jean-Luc_Bélingard.xlsx
+++ b/biology/Médecine/Jean-Luc_Bélingard/Jean-Luc_Bélingard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Luc_B%C3%A9lingard</t>
+          <t>Jean-Luc_Bélingard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Luc Bélingard, né en 1948, est un dirigeant d'entreprises français, président-directeur général de bioMérieux de 2011 à décembre 2017.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Luc_B%C3%A9lingard</t>
+          <t>Jean-Luc_Bélingard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Luc Bélingard est diplômé de HEC et est titulaire d'un MBA de l'université Cornell (États-Unis).
-Il a fait carrière au sein de l'industrie pharmaceutique[1], notamment chez Merck &amp; Co. et Hoffmann-La Roche où il était membre du comité exécutif du groupe et directeur général de Roche Diagnostic[2]. De 2002 à 2010, il a exercé les fonctions de président-directeur général du groupe Ipsen, groupe pharmaceutique français présent sur plusieurs axes thérapeutiques dont l'oncologie, la neurologie et l'endocrinologie.
-À compter du 1er janvier 2011, il rejoint BioMérieux en tant que Président-directeur général[3]. Alexandre Mérieux lui succède en décembre 2017.
+Il a fait carrière au sein de l'industrie pharmaceutique, notamment chez Merck &amp; Co. et Hoffmann-La Roche où il était membre du comité exécutif du groupe et directeur général de Roche Diagnostic. De 2002 à 2010, il a exercé les fonctions de président-directeur général du groupe Ipsen, groupe pharmaceutique français présent sur plusieurs axes thérapeutiques dont l'oncologie, la neurologie et l'endocrinologie.
+À compter du 1er janvier 2011, il rejoint BioMérieux en tant que Président-directeur général. Alexandre Mérieux lui succède en décembre 2017.
 Il est également administrateur de Celera Genomics et de Laboratory Corporation of America.
 </t>
         </is>
